--- a/0_Document/ICUUDMA.xlsx
+++ b/0_Document/ICUUDMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eastwaterthailand-my.sharepoint.com/personal/eakawit_kor_uu_co_th/Documents/Workspace/DMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UUProjectPrototype\0_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{C4AEB4E6-9D68-41DA-B72B-E95BB72AD636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1BD0666-26E8-4687-8B72-656A5387EB16}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FF338D-544D-4F26-A411-2CDDFCE678CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDA7EF38-C1E9-47E9-9C73-EE67E9DC6722}"/>
+    <workbookView xWindow="-24855" yWindow="3180" windowWidth="21600" windowHeight="11295" xr2:uid="{DDA7EF38-C1E9-47E9-9C73-EE67E9DC6722}"/>
   </bookViews>
   <sheets>
     <sheet name="BOMCompute" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -198,8 +188,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -326,22 +316,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -354,19 +351,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -737,13 +727,13 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="3">
@@ -779,7 +769,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -819,7 +809,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -859,7 +849,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
@@ -892,7 +882,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -927,16 +917,16 @@
         <v>0</v>
       </c>
       <c r="L6" s="6">
-        <f>K6*E6</f>
+        <f t="shared" ref="L6:L19" si="4">K6*E6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="11">
@@ -967,12 +957,12 @@
         <v>-2</v>
       </c>
       <c r="L7" s="6">
-        <f>K7*E7</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
@@ -986,33 +976,33 @@
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
         <v>28.36</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" ref="H8:H9" si="5">E8*G8</f>
+        <f t="shared" ref="H8:H9" si="6">E8*G8</f>
         <v>0</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" ref="J8:J11" si="6">I8*E8</f>
+        <f t="shared" ref="J8:J11" si="7">I8*E8</f>
         <v>0</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>
       </c>
       <c r="L8" s="6">
-        <f>K8*E8</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1026,33 +1016,33 @@
         <v>4</v>
       </c>
       <c r="F9" s="3">
+        <f t="shared" si="5"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
         <f t="shared" si="4"/>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <f>K9*E9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1066,37 +1056,37 @@
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ref="F10" si="7">D10*E10</f>
+        <f t="shared" ref="F10" si="8">D10*E10</f>
         <v>167.87</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ref="H10:H11" si="8">E10*G10</f>
+        <f t="shared" ref="H10:H11" si="9">E10*G10</f>
         <v>0</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K10" s="5">
         <v>0</v>
       </c>
       <c r="L10" s="6">
-        <f>K10*E10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="11">
@@ -1113,30 +1103,30 @@
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="6">
-        <f>K11*E11</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="3">
@@ -1167,12 +1157,12 @@
         <v>0</v>
       </c>
       <c r="L12" s="6">
-        <f>K12*E12</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1193,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" ref="H13:H16" si="9">E13*G13</f>
+        <f t="shared" ref="H13:H16" si="10">E13*G13</f>
         <v>0</v>
       </c>
       <c r="I13" s="5">
@@ -1207,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="L13" s="6">
-        <f>K13*E13</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="11">
@@ -1233,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I14" s="5">
@@ -1247,12 +1237,12 @@
         <v>0</v>
       </c>
       <c r="L14" s="6">
-        <f>K14*E14</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1264,33 +1254,33 @@
         <v>1</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" ref="F15" si="10">D15*E15</f>
+        <f t="shared" ref="F15" si="11">D15*E15</f>
         <v>200</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" ref="J15" si="11">I15*E15</f>
+        <f t="shared" ref="J15" si="12">I15*E15</f>
         <v>0</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
       </c>
       <c r="L15" s="6">
-        <f>K15*E15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1311,7 +1301,7 @@
         <v>-0.01</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.01</v>
       </c>
       <c r="I16" s="5">
@@ -1325,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="6">
-        <f>K16*E16</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1362,12 +1352,12 @@
         <v>0</v>
       </c>
       <c r="L17" s="6">
-        <f>K17*E17</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1404,12 +1394,12 @@
         <v>0</v>
       </c>
       <c r="L18" s="6">
-        <f>K18*E18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1444,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="6">
-        <f>K19*E19</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -1484,11 +1474,11 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="1">
         <f>SUM(E2:E20)</f>
         <v>30</v>
@@ -1508,22 +1498,22 @@
         <v>45</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" ref="J21:L21" si="12">SUM(J2:J16)*(-1)</f>
+        <f t="shared" ref="J21:L21" si="13">SUM(J2:J16)*(-1)</f>
         <v>0</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>45</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="9">
         <f>F21</f>
         <v>5534.7789999999995</v>
@@ -1538,45 +1528,45 @@
       <c r="G22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="14">
         <f>3.3*(SUM(H18:H19)-H20)</f>
         <v>0.60720000000000018</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="14">
         <f>3.3*(SUM(J18:J19)-J20)</f>
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="14">
         <f>3.3*(SUM(L18:L19)-L20)</f>
         <v>6.6</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="13">
         <f>H22/4.2</f>
         <v>0.1445714285714286</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="17">
-        <f t="shared" ref="I23:L23" si="13">J22/4.2</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="21" t="s">
+      <c r="J23" s="13">
+        <f t="shared" ref="J23:L23" si="14">J22/4.2</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="17">
-        <f t="shared" si="13"/>
+      <c r="L23" s="13">
+        <f t="shared" si="14"/>
         <v>1.5714285714285712</v>
       </c>
     </row>

--- a/0_Document/ICUUDMA.xlsx
+++ b/0_Document/ICUUDMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UUProjectPrototype\0_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FF338D-544D-4F26-A411-2CDDFCE678CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BD3644-EBCC-4A66-8391-F1417998E820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24855" yWindow="3180" windowWidth="21600" windowHeight="11295" xr2:uid="{DDA7EF38-C1E9-47E9-9C73-EE67E9DC6722}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDA7EF38-C1E9-47E9-9C73-EE67E9DC6722}"/>
   </bookViews>
   <sheets>
     <sheet name="BOMCompute" sheetId="1" r:id="rId1"/>
@@ -675,7 +675,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,14 +1407,14 @@
         <v>40</v>
       </c>
       <c r="D19" s="3">
-        <v>116.25</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="3">
         <f>D19*E19</f>
-        <v>116.25</v>
+        <v>64</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="F21" s="3">
         <f>SUM(F2:F20)</f>
-        <v>5534.7789999999995</v>
+        <v>5482.5289999999995</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>45</v>
@@ -1516,14 +1516,14 @@
       <c r="C22" s="21"/>
       <c r="D22" s="9">
         <f>F21</f>
-        <v>5534.7789999999995</v>
+        <v>5482.5289999999995</v>
       </c>
       <c r="E22" s="10">
         <v>5</v>
       </c>
       <c r="F22" s="3">
         <f>E22*D22</f>
-        <v>27673.894999999997</v>
+        <v>27412.644999999997</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>47</v>
